--- a/data/142/OSE/Oslo All Share Index - Weekly.xlsx
+++ b/data/142/OSE/Oslo All Share Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZV2"/>
+  <dimension ref="A1:AZW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7224,15 +7224,20 @@
       </c>
       <c r="AZT1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="AZU1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AZU1" s="1" t="inlineStr">
+      <c r="AZV1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AZV1" s="1" t="inlineStr">
+      <c r="AZW1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11352,19 +11357,22 @@
         <v>1413.58</v>
       </c>
       <c r="AZS2" t="n">
-        <v>1426.62</v>
-      </c>
-      <c r="AZT2" t="inlineStr">
+        <v>1426.67</v>
+      </c>
+      <c r="AZT2" t="n">
+        <v>1422.24</v>
+      </c>
+      <c r="AZU2" t="inlineStr">
         <is>
           <t>OSEAX</t>
         </is>
       </c>
-      <c r="AZU2" t="inlineStr">
+      <c r="AZV2" t="inlineStr">
         <is>
           <t>Oslo All share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZV2" t="inlineStr">
+      <c r="AZW2" t="inlineStr">
         <is>
           <t>Index: 1995.12.29=100</t>
         </is>
